--- a/CF3I_CURVE.xlsx
+++ b/CF3I_CURVE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE91DB7A-6436-4DE7-A34F-64EFAA8A3683}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C802DC-90DC-476E-805F-49BFD4EB700D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="2970" windowWidth="11070" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,8 +344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
